--- a/mynotes/mycloud diary.xlsx
+++ b/mynotes/mycloud diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydata\mydocs\mynotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydata\mygit\mynotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE8461E-F283-4D8C-8EC4-229196FE631E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C220FE-DD46-4C1C-BA5F-A4F986396FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47895" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Comparison" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="300">
   <si>
     <t>Technology</t>
   </si>
@@ -813,9 +813,6 @@
     <t>Monitor</t>
   </si>
   <si>
-    <t>Alert</t>
-  </si>
-  <si>
     <t>Workload</t>
   </si>
   <si>
@@ -899,7 +896,99 @@
     <t>vnet</t>
   </si>
   <si>
-    <t xml:space="preserve">network watcher for nsg flow logs, NW is one per </t>
+    <t>network watcher for nsg flow logs, NW is one per subscription
+define vnet and subnet
+vnet diagnostic export to LAW</t>
+  </si>
+  <si>
+    <t>storage account</t>
+  </si>
+  <si>
+    <t>SA for for network logs</t>
+  </si>
+  <si>
+    <t>route table</t>
+  </si>
+  <si>
+    <t>create resource group for network and set lock</t>
+  </si>
+  <si>
+    <t>peering</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">define route from subnet to hub(pointing all outgoing traffic 0.0.0.0/0 towards az fw), with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gateway propagation set to off</t>
+    </r>
+  </si>
+  <si>
+    <t>create hub-spoke peering , 
+hub : 
+allow_virtual_network_access = true
+allow_forwarded_traffic      = false
+allow_gateway_transit        = true 
+spoke :
+allow_virtual_network_access = true
+allow_forwarded_traffic      = true
+use_remote_gateways          = true</t>
+  </si>
+  <si>
+    <t>nsg</t>
+  </si>
+  <si>
+    <t>nsg for subnet and nsg flow logs, few important tips
+no restriction on outboun rules and keep it standard
+control will be on inbound start with deny all with priority 4000 considering JIT access changes to nsg when enable\disable
+some standard rules like probe from azure lb any-any on subnet range,inbound from fw on 53 for dns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firewall </t>
+  </si>
+  <si>
+    <t>create rule collection group with defined priority which will intern have application rule collection (usually used to define accessed URL by application internet\interanet) and network rule collection for interanet\internet ip based port opening, network rules are prioritize over app rule</t>
+  </si>
+  <si>
+    <t>create resource group for monitoring and set lock</t>
+  </si>
+  <si>
+    <t>action group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create monitoring action group for budget,for other monitoring </t>
+  </si>
+  <si>
+    <t>function app</t>
+  </si>
+  <si>
+    <t>app configuration</t>
+  </si>
+  <si>
+    <t>FA diag settings</t>
+  </si>
+  <si>
+    <t>private DNS source where private endpoint will be registered</t>
+  </si>
+  <si>
+    <t>private endpoint for FA</t>
+  </si>
+  <si>
+    <t>private endpoint diagnostics</t>
+  </si>
+  <si>
+    <t>function app service plan</t>
+  </si>
+  <si>
+    <t>create function app plan and diag settings</t>
   </si>
 </sst>
 </file>
@@ -2839,17 +2928,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3A880D-9D3F-4622-8324-A9FB1DB9942F}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.453125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -2869,34 +2958,34 @@
         <v>248</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2904,111 +2993,196 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial"&amp;11&amp;KFF0000 Confidential&amp;1#_x000D_</oddHeader>
   </headerFooter>

--- a/mynotes/mycloud diary.xlsx
+++ b/mynotes/mycloud diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydata\mygit\mynotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C220FE-DD46-4C1C-BA5F-A4F986396FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79F09E0-3DCB-475E-9702-F658E1576DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47895" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Comparison" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Azure Landing Zone-Spoke" sheetId="4" r:id="rId4"/>
     <sheet name="Azure Landing Zone-hub" sheetId="5" r:id="rId5"/>
     <sheet name="Cloud Governance" sheetId="6" r:id="rId6"/>
+    <sheet name="myinfo" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="350">
   <si>
     <t>Technology</t>
   </si>
@@ -989,6 +990,156 @@
   </si>
   <si>
     <t>create function app plan and diag settings</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Unix</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Enginereed System</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>New Deployment</t>
+  </si>
+  <si>
+    <t>Migrations</t>
+  </si>
+  <si>
+    <t>Upgrades</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Telecom</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>KSA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Sco</t>
+  </si>
+  <si>
+    <t>RHEL</t>
+  </si>
+  <si>
+    <t>CentOS</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Virtulization</t>
+  </si>
+  <si>
+    <t>Vmware</t>
+  </si>
+  <si>
+    <t>HyperV</t>
+  </si>
+  <si>
+    <t>Nutanix</t>
+  </si>
+  <si>
+    <t>EMC VxRack</t>
+  </si>
+  <si>
+    <t>Oracle exalogic,exadata</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>routing\switching</t>
+  </si>
+  <si>
+    <t>port channels</t>
+  </si>
+  <si>
+    <t>F5 LB</t>
+  </si>
+  <si>
+    <t>Juniper\Cisco FW</t>
+  </si>
+  <si>
+    <t>Zscaler</t>
+  </si>
+  <si>
+    <t>Mysql</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>Oracle EBS\Fusion</t>
+  </si>
+  <si>
+    <t>IPC</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>MIM</t>
+  </si>
+  <si>
+    <t>Data center</t>
+  </si>
+  <si>
+    <t>onprem-cloud</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>terraform</t>
+  </si>
+  <si>
+    <t>docker\container</t>
+  </si>
+  <si>
+    <t>k8s</t>
+  </si>
+  <si>
+    <t>azure devops</t>
+  </si>
+  <si>
+    <t>Purache and vendor mgnt</t>
   </si>
 </sst>
 </file>
@@ -2930,7 +3081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3A880D-9D3F-4622-8324-A9FB1DB9942F}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3217,4 +3368,218 @@
     <oddHeader>&amp;R&amp;"Arial"&amp;11&amp;KFF0000 Confidential&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03985051-B6F4-49E2-B8A1-09A2496107D9}">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="15" max="15" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>309</v>
+      </c>
+      <c r="S1" t="s">
+        <v>310</v>
+      </c>
+      <c r="T1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L2" t="s">
+        <v>336</v>
+      </c>
+      <c r="N2" t="s">
+        <v>338</v>
+      </c>
+      <c r="O2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>324</v>
+      </c>
+      <c r="S2" t="s">
+        <v>311</v>
+      </c>
+      <c r="T2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" t="s">
+        <v>337</v>
+      </c>
+      <c r="N3" t="s">
+        <v>339</v>
+      </c>
+      <c r="O3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>300</v>
+      </c>
+      <c r="S3" t="s">
+        <v>312</v>
+      </c>
+      <c r="T3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" t="s">
+        <v>332</v>
+      </c>
+      <c r="K4" t="s">
+        <v>346</v>
+      </c>
+      <c r="N4" t="s">
+        <v>340</v>
+      </c>
+      <c r="S4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>347</v>
+      </c>
+      <c r="S5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>